--- a/data/trans_bre/P1426-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1426-Clase-trans_bre.xlsx
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06882843947651153</v>
+        <v>0.06747758184996928</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.503524691772938</v>
+        <v>-1.495069678315844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.894638231446764</v>
+        <v>-2.688022128648002</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>-0.8434186728339746</v>
+        <v>-0.7654341820674648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5726247070715714</v>
+        <v>-0.5237148136411081</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.947684807287109</v>
+        <v>2.900290660659048</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.240975730173971</v>
+        <v>2.165050737774071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.29397789499449</v>
+        <v>1.433730604885363</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>4.316306725826569</v>
+        <v>4.80166466997891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3922177261173203</v>
+        <v>0.451886332752881</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.5480852700120186</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-2.48443603040627</v>
+        <v>-2.484436030406271</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4122281188838469</v>
@@ -716,20 +716,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.610658821441927</v>
+        <v>-1.135734813278069</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5794715829778658</v>
+        <v>-0.6131610382435945</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.564560595633266</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>-0.8507525840891723</v>
-      </c>
+        <v>-4.719927074579702</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.754624120762819</v>
+        <v>-0.7598033853350039</v>
       </c>
     </row>
     <row r="9">
@@ -740,20 +738,18 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.330979927645548</v>
+        <v>2.63361504743755</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.463604682558958</v>
+        <v>2.511086014699121</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.5230661863090121</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>5.56848810271791</v>
-      </c>
+        <v>-0.5035228534782692</v>
+      </c>
+      <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>-0.1099553660853303</v>
+        <v>-0.08790474133859603</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +770,7 @@
         <v>0.8619571692922011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.777932639571409</v>
+        <v>-0.7779326395714097</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.2023430630785726</v>
@@ -783,7 +779,7 @@
         <v>0.4722289044461402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.1628311221202594</v>
+        <v>-0.1628311221202595</v>
       </c>
     </row>
     <row r="11">
@@ -794,22 +790,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.262028707139207</v>
+        <v>-2.186528191571815</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.308748152593362</v>
+        <v>-1.426944291673973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.374826353631059</v>
+        <v>-3.421193005313279</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8082973499253474</v>
+        <v>-0.8379588265010762</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6776096364234798</v>
+        <v>-0.7164416524580002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5817311274389692</v>
+        <v>-0.5800215847961999</v>
       </c>
     </row>
     <row r="12">
@@ -820,22 +816,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.112422345767315</v>
+        <v>2.2146895278166</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.578812070053089</v>
+        <v>4.556280425636226</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.186331018312528</v>
+        <v>2.259782812256196</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.72724432981979</v>
+        <v>2.143505208731752</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.016351232603541</v>
+        <v>4.167127520815828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5934432091470054</v>
+        <v>0.65375156037064</v>
       </c>
     </row>
     <row r="13">
@@ -876,22 +872,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.6910943117982</v>
+        <v>-1.655264790507315</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.444824208754166</v>
+        <v>-1.413959925994415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.276650048297409</v>
+        <v>-4.288411450875836</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7729661558244298</v>
+        <v>-0.7719271289920525</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.657321252825955</v>
+        <v>-0.63588493221164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6175475427393742</v>
+        <v>-0.6128429813432298</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +898,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5384667966087205</v>
+        <v>0.4868214119514124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8613754899275397</v>
+        <v>0.9025447354930719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.214525576872676</v>
+        <v>-1.197878062879196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5771003252498575</v>
+        <v>0.5037472434956474</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7732662395602967</v>
+        <v>0.94341411577073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2229842947469021</v>
+        <v>-0.2327043900137031</v>
       </c>
     </row>
     <row r="16">
@@ -947,7 +943,7 @@
         <v>-0.1219627299562893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5113709158697453</v>
+        <v>0.5113709158697455</v>
       </c>
     </row>
     <row r="17">
@@ -958,22 +954,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.626565648371688</v>
+        <v>-2.906846433117034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.694313291730895</v>
+        <v>-1.678339535324703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4319441033630596</v>
+        <v>0.1556567688092853</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7653430531587863</v>
+        <v>-0.7598041376995055</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5997152786892815</v>
+        <v>-0.6019129415639817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05523239910810306</v>
+        <v>0.02553689136025431</v>
       </c>
     </row>
     <row r="18">
@@ -984,22 +980,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5850647366078807</v>
+        <v>0.4983248029257568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.278411604772476</v>
+        <v>1.21948902547983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.061765711510926</v>
+        <v>4.166067105869213</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.478723166309196</v>
+        <v>0.3961925808295467</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9838093586391363</v>
+        <v>0.9266059181862568</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.252622683082782</v>
+        <v>1.257105805099257</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1016,7 @@
         <v>3.093853371573551</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5.623754397074497</v>
+        <v>5.623754397074498</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>3.040292843394953</v>
@@ -1031,7 +1027,7 @@
         </is>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7.05421009613428</v>
+        <v>7.054210096134282</v>
       </c>
     </row>
     <row r="20">
@@ -1042,18 +1038,18 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.5906681764314756</v>
+        <v>-0.4071933876444363</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.089479540355859</v>
+        <v>2.161127238139368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.880316692519713</v>
+        <v>3.755612340790832</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>1.602154072865713</v>
+        <v>1.325276476751953</v>
       </c>
     </row>
     <row r="21">
@@ -1064,18 +1060,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.40817786209641</v>
+        <v>3.44614441485558</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.347050179630953</v>
+        <v>4.252213118162058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.157928315534535</v>
+        <v>7.241800587463939</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>30.48929407018313</v>
+        <v>26.6324036305298</v>
       </c>
     </row>
     <row r="22">
@@ -1096,7 +1092,7 @@
         <v>0.5950858551057304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.02106926581246504</v>
+        <v>-0.02106926581246574</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.2040143640434378</v>
@@ -1105,7 +1101,7 @@
         <v>0.4108711268449271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.004478425756627958</v>
+        <v>-0.004478425756628106</v>
       </c>
     </row>
     <row r="23">
@@ -1116,22 +1112,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3811290539095777</v>
+        <v>-0.3924625226854794</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.09432737733227305</v>
+        <v>-0.03140185318490425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8773025761940993</v>
+        <v>-0.8146738622923434</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2136085777422512</v>
+        <v>-0.2135638171898242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.05932895394733761</v>
+        <v>-0.03273100682010887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1682182408202145</v>
+        <v>-0.1568611621084016</v>
       </c>
     </row>
     <row r="24">
@@ -1142,22 +1138,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9280187382341055</v>
+        <v>0.9300578638383272</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.276771880718089</v>
+        <v>1.258399942368729</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8380974113165799</v>
+        <v>0.8348097942103495</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.7108861596359032</v>
+        <v>0.7520401980875911</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.050268832253438</v>
+        <v>1.039851868773919</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2006064393878407</v>
+        <v>0.1994342168651048</v>
       </c>
     </row>
     <row r="25">
